--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/52_Kocaeli_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/52_Kocaeli_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63BA8103-473B-4697-B297-CC130BF3D601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED113AE9-9DB1-48EF-85A2-85E3A7DE7326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{9D417850-5EF7-403D-BEE7-A53B215B958E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{3AF7F44D-AC70-4F18-85C9-F5FCFE17709B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -949,14 +949,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3838E85F-7DFE-4857-B927-A7D56DFDAE57}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{55290F9A-2FF8-416B-A1A5-5C89B7FD0A51}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{B04BBD4B-95E7-4664-A827-B56EF2DD29C6}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{D704E972-B0EC-466B-B1D7-20FD48EDC9D4}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{B4C7FC87-C8D3-4E01-938E-608039AED045}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{A59FCE45-4AEB-4115-8DD6-7A49971A36AF}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{DD5F8D95-0913-4F57-857D-E982F89CAEE4}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{B31B4F6B-AE94-4214-8D16-6085EFB07FB8}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8274572D-4B9A-4725-9B74-CB3A62EF5A74}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A9726423-8C2B-471C-ACA2-61153655CC16}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{F3B9CB9D-C8F8-4C78-91CB-69EC6F2400D4}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{0AE4737A-7D10-44C1-BE73-C83A2B8548B6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{0EA42089-4E7E-48B4-8F1D-33C8967AB674}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{6946CD2C-1FDE-4487-9156-6404E747551F}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{1C3A209B-5A58-4681-8A66-B40E2DBB1BFC}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{B7046B1B-0CCB-4B04-B03A-E14EFB68D4ED}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C3A8C7-908C-4888-AF7F-7AC10E73D01B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5820638A-5F03-4812-B90E-294B5F18BF6A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2641,18 +2641,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{784E3863-389F-40D2-9F27-159490A5170E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3AA71FEF-FD4C-4594-8E9E-F9307C3E5918}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2B311D81-430E-445C-BC10-866416039F3D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8E574F81-205C-4457-BD18-20EFC49DD2D7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{732025E3-6824-4CDD-84E5-BF21173B9D6D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8FF92FF4-BBF8-4D45-B21B-DE73FB4D9525}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90DCA157-3353-460B-882B-D14DFD90797F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E20AE9D-1E9F-4D15-9484-AC913D3FC393}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CD575781-BD72-4DCB-A70A-7C9CDEE41CE2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1563ECEC-4B8D-4CC7-8D13-6382CB57C60F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4C033D49-7C01-476D-8D54-0B44E147A8FC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AEBF2C26-FC08-472B-ACBD-77863371C530}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C62899C7-090F-46B5-A531-DD790DCACA56}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E2B6918E-5EA7-4CB7-8ACA-4CDAB135D4BF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{796D9DE8-CCB2-4C1D-8EB2-DA2EB3DA147B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D0E645CD-423B-4ACD-A1D6-92862AEDB9E7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{43A4EF39-6ED9-49C3-8A30-D42BA2D920E3}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AE4BF5A2-48D4-4809-8C67-B0C537F8EDCE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2FBDAE20-DA1D-42A0-92A6-534A1D475DA0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A66BF7C1-B655-4C73-847F-FED92FD4C1D8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{95C1BA54-D18D-4E1F-9C9E-7E92DE907D6F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{625255FE-29F7-4F47-B763-8EE4CC472D2E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C86AAD9D-90B2-4176-BB17-73B3AE31C516}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E56B6138-91B4-4F96-A94A-2AA262C49B5D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2665,7 +2665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862DAB09-D13B-4BAE-BA2F-F66709B6DFC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47B8D8C-6657-4B36-AD4D-D99EB2358220}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3960,18 +3960,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC1DDA67-37B7-4FB9-BFD3-01704E7ADA7F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D8A6017C-57A8-4B94-95A3-BABE7F48BF12}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E8D4C10A-6F23-43F7-9829-3A588B28D3EF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AEA712A1-9023-492C-8FF0-120334856CB8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E7CDA869-45A8-400C-8B58-09E99A74E16B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{61484556-8D13-41B5-BF18-1157E03C3EE9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4FF5ECA5-4354-43A3-9D68-2590800F61CA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9A0F3DD-8AE9-4805-B312-4BB2BFE63550}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{251BC8D6-B57F-4DD2-918C-1C99F47F9C14}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E50DDF94-793D-4EB7-8575-4793F1E75A97}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{427317CC-1AE2-4805-AADD-B9884B7377F4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BA943C9D-53DC-4185-A760-76AE8E825847}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1EDE7BE1-ABF3-4DAC-B5DD-3E272DB43AF6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DCC7F428-93AE-427F-8CB7-7FB18643EA61}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5A1DD1C4-D2B9-4C3D-A046-A6B93964B960}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EF71C21E-B4DD-4028-B4FD-41CA91F95808}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{63B02815-C111-4445-8737-06A784C0AF51}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6C7555B2-A80D-4C84-9575-85AB83554AEC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1DC36212-8BA5-4DAE-8E28-76E9F5D86C2D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2975EDE6-519B-4FF0-AB20-FAB5C02712B3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C99E82DC-78D4-457B-864B-DC26B2266C51}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AC88632C-5C97-474D-A36C-EB937320B40F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{14741BC2-FE98-4B89-9F66-EC5725059767}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6EC6F8E1-3B88-4D57-A521-01C9A4E4A7FE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3984,7 +3984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A82A1F5-37B8-4D58-A465-27A3A3208793}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF84E2F-4BAC-45F1-9C2A-3AF22DF0E491}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5279,18 +5279,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{220F6EB1-B2F7-4E7A-B14C-3CB8AC6F9D35}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2DA2585-2E43-4AAE-B46E-AEEF6BB63A3E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8522AD0A-5E68-4FF5-AEB9-F3D59FC21642}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C5A9B192-E026-43D2-B0FD-35104C3EEEDF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0E616663-72F8-4E06-B58E-18F1A06DC0A0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6AB3CA6D-A790-44A3-8CCE-D82EA4F81180}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C3C4B470-8733-46C8-A942-9CE3C37CEF54}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{647EC908-B3EB-4A62-A2ED-7EC9595F2EC3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1AF7F737-6E96-48DC-A211-FF0827E85C37}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{86CC5572-7758-4D16-BF48-7BEF0A5386E1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8DCC130-C7C8-4C70-B757-1D942EE603F5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E545330B-710A-4959-AE4A-E05BC99FBD47}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90C24CFF-4C06-4A2B-A2FA-04E412632687}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8421AA88-1282-4623-9149-35B84ADEE20E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2A4ACE57-D22B-45DF-94F9-5688B2EA0656}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{00C28B77-6DD1-43F7-A475-38DE337671FA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C6BC5560-2158-4693-9160-B32DC29C4C28}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C658014B-4FF8-4E1D-B9C4-C66BDD846FA4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6141D4EB-F615-43C8-B15B-DBBDFB58E486}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A9D4B8F-7B5C-47C2-B324-0FBC5575C33F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9843F561-4F27-41BA-AB7A-5E4809E6A511}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CAF06FB4-BA8B-4BAC-B577-96BACAAE4BAF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F06EBB6B-4B44-4304-AF52-87B9B03A386D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2D5D744F-78A6-49D9-BB6C-C2AE027A63FD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5303,7 +5303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3C8D55-CD16-4E73-81CF-F05F799A6806}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C13518D-F432-43EB-AA37-270C59EE9546}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6595,18 +6595,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{780EAC8D-9113-405E-874A-864E1D38EA03}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{015C3ACE-55C8-4AAD-838E-66379073FEB9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0D867B90-F59D-41E3-89F9-A82829036C30}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D7549956-23BE-40A9-8F7F-F4DE2C73C183}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{92DAB8B2-66DF-401D-AB62-E114CAC9F29A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5DED77D9-AF5C-4A47-B356-47A30E7996DF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED464296-A5F5-4E02-AF04-4612F9049BD1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3CA6EC6B-056B-4016-ACC0-07AC89225D41}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{699703D5-ABF5-4AE8-871D-1A7AD152E186}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C2117C66-EF17-4670-AD40-BA845E441B46}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B18DAD07-9661-4957-B42D-E1B17E7770F7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5AFD9FE6-F570-49E3-8FD0-8C0EBC66EF53}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D34696B-E3D8-47E1-B2D5-AA0D0DECCFCD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D8C97271-4801-4621-AFA6-70E630210DD4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F94B5769-0B4E-4388-A238-BDBD2C95850B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{46E0E674-3F85-45D0-A34F-29E5DB8967B9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8902CB58-DC45-4F33-AE78-B0B1969EFE31}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0A34DB8A-50FA-405C-93F5-1D2380FA4A7B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{316A5065-CC04-4C7B-A4AE-DCAFA1B3AD39}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D8D1FB2-D655-4F0D-9398-6D245324CF1F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E2C04578-B9E7-44DF-9245-23C8C1787C4D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{563EA248-D34A-413F-930D-6A1D39280AB5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AAE6CCD8-84AD-4989-B44C-4A088B3A886B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{80EEB414-26C3-4484-B9A4-C193717922C7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6619,7 +6619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBC5693-41BF-4882-AACB-58BACE1FBF80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B283554C-563F-4CF9-A669-FDC4279C7725}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7934,18 +7934,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{039ACCD5-3EEB-47E2-B68A-C3C5F6E4ADC6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{715A6841-0453-4107-A2B4-841E97CBF32F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4E672823-A6F2-4B94-8B70-BF3212B3BB09}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{47BC8CD7-D8A0-42E3-A687-725DB5A04D7A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{95D45879-4AE0-485D-8EAD-E8B8FF6AC2F1}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1000EAAA-C35E-41CD-A176-4C5760D28EC1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5691447B-3B83-42F1-8CEC-0E69E44BBE51}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B49F1C88-6722-42C6-95E7-930223891471}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4CF76809-48E9-45D4-A165-71B964B2A484}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{67196EBA-58E5-4771-8E06-08DA3B2E4A1E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E52F7B6-CC23-4668-B9A1-5AB46F077B7F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B2408943-D420-44D4-8DAB-F4B1D973B8D7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A93F37FA-FF4F-4B98-B2DB-1F3E82DB0FE1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A68489DB-3C17-44DA-8D7B-99ADBA223083}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8A445876-FB84-4210-8441-58BED5A3EEE2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0F737DF7-0C5C-4C73-9792-72A91EDE72E1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC86EE17-69BE-4B4F-BE50-E4593719482D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DB3F810C-B5A1-4EF1-A1CA-44A7559CE71D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4939F858-ED50-4783-ACE7-8359F3275346}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA7E0DF8-471A-4C7C-A76B-4B780A2EFC14}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4339CF4-9014-4487-B09D-E1A73F75055E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3DFFDB95-38B5-43E6-BAD0-E8C072CF1A25}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5BD63513-A6A6-48C1-83A5-7171E2A814AE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3108B10C-A546-466C-B9E7-167535CB724A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7958,7 +7958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26340049-AC1D-42B7-8CB8-0E2EA18F9043}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70E7E74-D7B1-430D-B713-8226A9B3EC5D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9273,18 +9273,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{54403FBD-79DE-4109-91DD-E08D3437B761}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4BFC5274-5F29-4EF2-A9C5-C53790E3DCAA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3CA8F50B-62B6-4C82-B272-C1E51086B854}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0C02EF13-F6C3-40CF-99CB-537F3BF72E92}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8EDC87ED-F31E-4F00-989F-59657842E808}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3C92875E-0037-4FDB-A376-A01986AFE62D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{83DCB742-A2B5-45E6-8F9C-10900F86E4A1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F833496-A1A6-4B57-91BE-2B74F6DC5C88}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C1138115-B10D-40BD-929A-40A2742F528D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{98CBE8A1-F576-4745-9112-608E2A814B15}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{19A1E27F-EFDB-4843-B257-4C488BD0B566}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{49FFDEFD-3A2A-4290-94D9-816162B1F54C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA895D4A-C1FF-49CC-8D03-6ECA06FEF377}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B3BD938E-DBC8-4AEC-B2A7-5DF77C13A3C6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{633641AA-7BA1-4EBE-A09F-BDA4796E6240}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7A9DAFB7-1D4A-411E-A5BA-012F16526CF3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{10C41BF8-2D5F-457D-8819-B64932246804}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{01DEDE17-E648-471A-BD50-DAD2D76A2AE9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF17A582-EF0F-416C-854C-A041FC8A7FEE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C0E317A-2206-4324-A493-79AFB794B6CE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{25B3DC4A-AC4B-4D24-8CAA-C20E74A11068}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{752E6452-0099-42A4-8A53-FE1E531A00D5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{29C18B0D-3E31-42E8-B885-31C172CB9BBE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{957B7689-0365-49F6-9388-4B8D9F0AFAB5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9297,7 +9297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12206831-CD52-4E87-9F97-5310AFCCFA69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F499F77-FC92-4BDF-B90C-06D5115BF3C6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10612,18 +10612,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ADC3FE3B-9175-4E0E-9C95-2637DC094178}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4BEBD095-84B4-4A55-A53C-4B81788FECBA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{06D1BCC6-28C4-4CF3-94A6-8D04E03227FC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{01CC3560-C779-4539-94EB-9BC3102995DD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7D257B3-BC06-453D-8070-5C9670F7600B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5F569D85-88D3-4A1D-9713-9DCE216C4668}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCE8CE7B-C3D5-415C-9757-DAB50E631615}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{02AC8B2C-0E3B-4C8E-9396-B921F8D0EFB6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2FF2141D-B9A1-415B-B8F1-E9282C30BF96}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EE361067-3809-44CD-801C-5C12339E1DB8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{008AB8D4-4FC1-4912-A0A8-099307023279}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A4132DD-9F58-4612-95BF-2CB7E9B6EBAF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FB2D84A6-BAE5-4EFA-98BE-1A3DD3D00316}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2EC1E75B-023F-401E-8BF8-45473C3FCA5D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EDEA059E-5DF5-48A5-A8CE-88A06561F23A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{54CB9133-B536-48FF-84FB-3F76FC2A4692}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4AA5BECA-E874-4450-BAE1-288AFB6A8AD6}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1A1C45E5-68B6-4DD2-BC33-D36DDA951A92}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{687BC1F3-7416-4C45-9390-1F22E7B00B31}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{111A9C8F-CD54-4DB7-828F-6EF13D6C0F20}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{339268D9-01FF-4E12-9499-477E4050C643}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A8213B80-9393-486D-A37A-85343D559BEC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B65B259-C6C2-40D3-A422-B26744B5012A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7CCEC5FD-D3B8-467E-A8DC-15F2BBE956A2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10636,7 +10636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E897D9-16C6-471C-8DD1-3CFB2C833D50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0248D42C-2573-439E-8BC8-40D2410607A2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11951,18 +11951,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{947A802D-F8D4-425A-800E-8493115FB78A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9FD9309F-CF63-406C-92ED-824EDBE88622}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E8C83DBD-E9CA-40E8-90A7-9AB871A3AFDE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FEDA0DF3-1F99-4EB9-B671-5E558FA041C7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CA6F28C9-E92D-4979-856B-F8C1414E8CD0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F8D05556-D267-472D-9E8E-2D62DC3F9C67}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{809A66BC-FAB1-4233-B341-6B64CDF79117}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C5EEC629-F3E8-4A24-BF1B-E9CF2754A985}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{64ADD1C8-9BF1-4FAC-A670-2390C86EBCBB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E6DA2ECD-49E8-40E8-9F8D-441C1678525E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E381667-66E3-4102-9021-87082053A3D3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96FE9902-2BBC-4C2E-A9B1-E9E7251F8145}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{519D6588-9790-4676-9ECF-1CC641977A80}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B329C4C-3134-4C81-954E-E00AB683FC4C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9E97B0AD-0D95-4F02-AB01-76EBA56126C5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6CA9EB7B-4A1A-4160-A96C-D369F9E30D0F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D479C36-DDC4-4FDA-A7E2-B24F85BCCCDD}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8D085649-51BB-450F-B20C-74D726C0908A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7591630-43E7-4CCB-92A6-22B85156044B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF592131-CDE1-414F-95A7-381EC7B18036}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FDEF328E-590A-4C71-8FB2-F688DCBFDC24}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7B3707BF-7631-40F7-A831-A96F68E47E8F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC74BE59-3060-41B9-9E3F-54E058BEA9EC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{30D66288-7E42-49E4-BCFD-E2D370ED2D88}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11975,7 +11975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55DE7F1-709A-4956-B341-DD2136FBDD19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52D9FD9-FE99-4315-A8F3-971977705E2A}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13282,18 +13282,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F85466AB-93E6-46CA-811E-3C1EF934E7EC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D5311E2-3FE5-4E95-AE0F-F0177E26C317}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8A2EE098-1CED-4F18-832B-D17A31BC2D6E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{32C802B7-F820-4C0E-AB5B-1BDC82915545}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BA2CCE69-D9D0-4FBC-9FE0-DA7026E45345}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C228F614-4B2C-4E69-96B9-50400B7CC0CB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1C913AD5-DCB7-4BA5-AC8B-69A9EA9576CB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{54222DF1-D8F9-4F7A-A17D-675077CCADFB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B37163EE-1670-492D-981E-F509EC0CC7F8}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{87E29890-2B28-48A6-BCFC-DEE0A708C299}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0145C91-B44B-45D2-A374-5421CC326396}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{50BF13DD-83EE-44EB-BB5A-174FCDF6B3D0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{15B219F9-0B96-482F-A19F-CE7A097A0397}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1787FF0C-D273-4717-8231-6AE7CE038A36}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A86C8533-A841-47AB-A584-F21B4B4442AE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7B05DBBF-E23E-412E-9153-575B339AF352}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A1701170-FD7E-472B-872E-B04CB754D548}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DAD3BA2C-9B46-4675-AFDD-EA940887788E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E2CAB48-C996-4820-ADB3-4558E780A135}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{30982EE0-89E1-435B-84C1-CC012BCDC71C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AF90A7A5-572A-466F-92FC-342B3BDD42EA}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{89D8952B-5D59-4179-84E6-EC24B061EBA8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4D661C3C-9303-4974-B94B-177129640B26}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{355A3A17-B419-482E-B2AD-1998355A339E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13306,7 +13306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EACE8FC-7E6B-4D9E-816F-241006AA8A96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6A3C7E-4B5C-4D63-B36E-8BC3CEDBDE45}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14607,18 +14607,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{81347AA0-7E98-40A8-A697-95D00B4C1F47}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0DC03761-E85D-4D88-8AEA-9ADF0CAD768B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1E98C98B-BF88-420A-AD9B-B81707304A59}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3604C094-7C96-4A5F-8D0F-B0975ADACB61}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C0383B43-B601-4CA1-984E-68D24674DE7D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{956DF98B-EA2E-4198-9FF1-DD8F3B713A32}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28835881-13B3-4060-8E8D-B182771BC5B1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C3BBE49-A54C-4D13-A3D4-F8CB5D58E130}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6EECF00F-1804-4E71-9BEE-8A46D4243A58}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B8A23383-AB75-4C39-9DF7-DF85F3E25644}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{215C6237-14D0-49DC-B9A0-2552AD250C6B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{824A82B7-B16A-47B6-83F6-4E307C368456}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{696CF2E4-8EF0-463E-9AE0-E2ADE23D9909}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B007B36E-BCB6-4AA9-8F99-E59DA06FBA6B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{17E56D4A-9342-4C5D-8E9D-04ABC7EEA9D1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B8C545B-36C0-4E16-A490-996363D04B6C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6BB8ECFA-BB01-4204-971A-5DA5E8C62877}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D516B5E9-6A85-4E55-A599-D317DB73B27C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{513A1CDE-1D1D-4E62-BBC2-D39E45B5A647}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{359F3608-E477-411A-93FC-C135D25A2D49}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{60F09F46-545D-4F19-B53A-C4E4EE973557}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A839F1DB-E7E9-44B4-ADEA-2BCD976021D2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B9043C2-69B3-476E-A720-1E5B332EE828}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6443A78C-F394-4924-92BA-B74D9810F734}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14631,7 +14631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B1D2BB-DCD1-4DFC-BFB4-BFA6BF9418ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EEF071-37F5-4823-BD1E-55677E67C905}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15926,18 +15926,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5D1846DA-8E92-4804-909A-EE3109194F2E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{027E6E58-13DE-4B10-95C7-616A69EC4AD3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D5DC4BCB-530E-4FD4-99B4-F56740C0F0D8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{171D3FC8-ADF3-4C9D-BF52-65260AC42D7A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB2FB4D4-7F47-48F9-84AF-DEDDA4D86935}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C39F7DC5-306F-4A6C-B5C8-A69D3E20DDAD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2EBC8B29-37BC-47EB-B51A-B25C60CE7009}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4FEBB76-4B28-4FE8-8E66-C6FDDC872BF5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B18B69B0-0BED-4351-84DA-225A778A5BAD}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B8DF6D18-0905-4DCA-8455-C0755EFB1E9A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E24EDEDF-262C-4275-B2B3-1FCB68C00498}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7631A8FB-6CF3-4BC9-91B0-67D408AB951A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF0B09E4-6DBD-4F1E-85F7-1E6C2E440CE4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD5839FA-E2A6-4521-BD7E-45E854BBAFA9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EC4D843E-84B1-4FBF-8E8E-E4F785926230}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{84F4FF22-1A6A-41D5-8598-EBA13D3BF79F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{45F50A12-9E8E-4D49-9AD7-770B07C00EBD}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8DEA248E-8DBE-47E8-AD67-48A33D6916F4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7AEFFF52-DB76-40AF-AA86-E1E15D160E39}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D6EE249-D23C-41EF-A511-5F40A885EA9F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A3257599-0282-48B3-A3D7-8AB0CDD3C762}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{05D2C59A-4214-4DB3-897E-E3C1AFE52524}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{747FF09B-F28C-44FA-BB6B-33D1D8D05F00}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0C3BE9D5-0402-409F-A160-E410A23623A7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15950,7 +15950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A708149C-4390-4BF9-8451-87E474EBCDDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12E062F-536D-4552-A0A2-B5D9739AA75A}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17245,18 +17245,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{331C7825-04B7-466F-B620-D970DE29A881}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD14D495-3EF3-44A7-A34C-A4C1636FEC11}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BA20828A-F540-43D2-8B00-AA912848474C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FB44481E-7E31-47AD-ACD3-61B85AB6F798}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2ABB60D8-BD76-4820-9EAA-8B877975FE69}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1F5DE4F9-79D1-4F34-BCE7-3A196EFEA4E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{024945D3-9BB6-4A96-89CE-106736412B3F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F96C5A48-2F6A-40E8-A839-8746C4359101}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{38DD1AB4-7A36-4258-B9E5-3BEEA474D9C4}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{01FB2AAE-F57C-4841-AF11-7992E51ADC23}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D7FE1AA-F3BE-4633-9C63-E0FA75A2E505}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D4A1D32-149F-4CB3-84D6-A60F5FBEF264}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C993E27-15A0-474A-852E-C853237A02C7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8831DB70-FC68-4B48-B2EC-470AE54EA003}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C91B8690-1799-4D9D-947E-EE891BFE957E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F706FFA7-1B9E-43ED-A636-0382E6C2BDA9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8224D960-5091-49C4-80FA-A752D3548CFD}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C79289A0-C338-4344-B163-AC03DBB61048}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C3DF2C9-7C15-4BFD-B144-D63309AE853B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DA8D8789-F416-4B92-A00B-6AC7CDA59246}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{21D087AE-AD18-429A-A2D8-F26B552F21D4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C6FEDCA8-89A7-4435-AC40-3F08C90251EC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0ECEB6BB-9D11-42DB-8D96-5AD70BF33F0B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8D851463-23A1-4DAE-A93D-6360A60DD1A5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
